--- a/public/cohort/fileExcel/xlsxUIT/OPEN/IF_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/IF_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -936,10 +936,10 @@
     <t>groep</t>
   </si>
   <si>
-    <t>mavo?</t>
+    <t>De domeinen A12 en A13 zijn niet specifiek aan een PTA-onderdeel gekoppeld maar komen gedurende het jaar aan de orde.</t>
   </si>
   <si>
-    <t>De domeinen A12 en A13 zijn niet specifiek aan een PTA-onderdeel gekoppeld maar komen gedurende het jaar aan de orde.</t>
+    <t>mavo?</t>
   </si>
   <si>
     <t>Computational Science</t>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>Project Data</t>
+  </si>
+  <si>
+    <t>Pitch eindproject informatica</t>
+  </si>
+  <si>
+    <t>Product eindproject informatica</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>68</v>
@@ -2670,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>74</v>
@@ -2742,7 +2748,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2984,7 +2990,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -3008,7 +3016,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4753,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>68</v>
@@ -4952,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>74</v>
@@ -5024,7 +5032,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5267,7 +5275,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5292,7 +5300,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5509,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>85</v>
@@ -5962,7 +5970,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -7294,7 +7304,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7560,7 +7570,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7777,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>85</v>
@@ -8231,7 +8241,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9339,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>68</v>
@@ -9538,7 +9548,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>74</v>
@@ -9610,7 +9620,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9852,7 +9862,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -9876,7 +9888,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11623,7 +11635,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>68</v>
@@ -11822,7 +11834,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>74</v>
@@ -11894,7 +11906,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -12137,7 +12149,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12162,7 +12174,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12379,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>85</v>
@@ -12832,7 +12844,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -14166,7 +14180,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14432,7 +14446,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14649,7 +14663,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>85</v>
@@ -15103,7 +15117,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15227,29 +15241,27 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I30" s="45">
         <v>2</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="45">
-        <v>50</v>
-      </c>
+      <c r="L30" s="45"/>
       <c r="M30" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15321,10 +15333,10 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I31" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="29" t="s">
         <v>19</v>
@@ -15335,13 +15347,13 @@
         <v>8</v>
       </c>
       <c r="N31" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15413,7 +15425,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I32" s="45">
         <v>2</v>
@@ -15427,7 +15439,7 @@
         <v>8</v>
       </c>
       <c r="N32" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
         <v>11</v>
@@ -15761,7 +15773,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -16470,7 +16484,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16736,7 +16750,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17516,7 +17530,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>85</v>
@@ -17686,7 +17700,7 @@
         <v>86</v>
       </c>
       <c r="I32" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>19</v>
@@ -18032,7 +18046,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/IF_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/IF_OPEN.xlsx
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
